--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfIntranetAdjust.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfIntranetAdjust.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD939979-BF8F-49FC-9C2B-2E00B156137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -245,10 +255,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1:全部 2:單位 3:區部 4:部室 5:區部＋部室</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>SumAmt</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -323,12 +329,19 @@
   <si>
     <t>PfIntranetAdjust</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:全部
+2:單位
+3:區部
+4:部室
+5:區部＋部室</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -651,12 +664,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="6"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般 2 4" xfId="4"/>
-    <cellStyle name="一般 2 5" xfId="5"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,6 +760,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -782,6 +812,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -957,11 +1004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -983,7 +1030,7 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>55</v>
@@ -1183,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>40</v>
@@ -1255,13 +1302,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="E18" s="22">
         <v>16</v>
@@ -1276,13 +1323,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="22">
         <v>5</v>
@@ -1291,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1308,8 +1355,8 @@
       <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>58</v>
+      <c r="G20" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,10 +1419,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>24</v>
@@ -1394,10 +1441,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>24</v>
@@ -1416,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>28</v>
@@ -1450,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>33</v>
@@ -1466,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>34</v>
@@ -1495,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1524,24 +1571,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
